--- a/Code/Results/Cases/Case_4_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9419832632743237</v>
+        <v>0.864852945860008</v>
       </c>
       <c r="C2">
-        <v>0.1033389307495121</v>
+        <v>0.08470519802246201</v>
       </c>
       <c r="D2">
-        <v>0.1871972200165004</v>
+        <v>0.07666607668650727</v>
       </c>
       <c r="E2">
-        <v>0.05608116729644408</v>
+        <v>0.1006978799920759</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.398158670781129</v>
+        <v>3.102342321812586</v>
       </c>
       <c r="H2">
-        <v>1.960659557291876</v>
+        <v>2.335905672660203</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7442217910598572</v>
+        <v>0.4411727187139434</v>
       </c>
       <c r="L2">
-        <v>0.1459861363593618</v>
+        <v>0.1966204710330004</v>
       </c>
       <c r="M2">
-        <v>0.2047304360156375</v>
+        <v>0.2181622898218905</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8237078624275682</v>
+        <v>0.843234501217438</v>
       </c>
       <c r="C3">
-        <v>0.09750316726557884</v>
+        <v>0.08253124014887803</v>
       </c>
       <c r="D3">
-        <v>0.1619456399787254</v>
+        <v>0.0698194154473839</v>
       </c>
       <c r="E3">
-        <v>0.05402243751900571</v>
+        <v>0.1003567323239896</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.130122561567191</v>
+        <v>3.027054271993848</v>
       </c>
       <c r="H3">
-        <v>1.838953561289088</v>
+        <v>2.303762807196648</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6417591937539413</v>
+        <v>0.4202695279218602</v>
       </c>
       <c r="L3">
-        <v>0.1328469517650106</v>
+        <v>0.1943271504768944</v>
       </c>
       <c r="M3">
-        <v>0.1809951194187001</v>
+        <v>0.2139217819283559</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7525559548027729</v>
+        <v>0.8306423692436908</v>
       </c>
       <c r="C4">
-        <v>0.09391683329369016</v>
+        <v>0.08115432108868248</v>
       </c>
       <c r="D4">
-        <v>0.1466674828085104</v>
+        <v>0.06565449457212935</v>
       </c>
       <c r="E4">
-        <v>0.05280206837254831</v>
+        <v>0.1001677995846375</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.968904615648142</v>
+        <v>2.981526307777557</v>
       </c>
       <c r="H4">
-        <v>1.766001825714653</v>
+        <v>2.284513664771538</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5799223485296636</v>
+        <v>0.407858256850389</v>
       </c>
       <c r="L4">
-        <v>0.1249848767851134</v>
+        <v>0.1930160115647368</v>
       </c>
       <c r="M4">
-        <v>0.1667402748347726</v>
+        <v>0.2114682761707911</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7238931815122953</v>
+        <v>0.8256823377328431</v>
       </c>
       <c r="C5">
-        <v>0.09245236265180523</v>
+        <v>0.080582543639796</v>
       </c>
       <c r="D5">
-        <v>0.1404910943177669</v>
+        <v>0.06396696806146451</v>
       </c>
       <c r="E5">
-        <v>0.05231507444802297</v>
+        <v>0.1000959758612865</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.9039668091105</v>
+        <v>2.963148183260955</v>
       </c>
       <c r="H5">
-        <v>1.736680399552853</v>
+        <v>2.276791536964026</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5549609014257015</v>
+        <v>0.4029068110391876</v>
       </c>
       <c r="L5">
-        <v>0.1218285137536199</v>
+        <v>0.192506104955612</v>
       </c>
       <c r="M5">
-        <v>0.1610039677116042</v>
+        <v>0.2105062181628874</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7191527733323255</v>
+        <v>0.8248690770264773</v>
       </c>
       <c r="C6">
-        <v>0.09220894504672117</v>
+        <v>0.08048695338806056</v>
       </c>
       <c r="D6">
-        <v>0.1394682993763894</v>
+        <v>0.06368733976729857</v>
       </c>
       <c r="E6">
-        <v>0.05223481377426786</v>
+        <v>0.1000843618546128</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.893227470127243</v>
+        <v>2.960107045642445</v>
       </c>
       <c r="H6">
-        <v>1.731835073822651</v>
+        <v>2.275516645662179</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5508295044414666</v>
+        <v>0.4020910382864571</v>
       </c>
       <c r="L6">
-        <v>0.1213071545587212</v>
+        <v>0.1924229089363294</v>
       </c>
       <c r="M6">
-        <v>0.1600556377791804</v>
+        <v>0.2103487501695724</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7521681009351937</v>
+        <v>0.8305747827378411</v>
       </c>
       <c r="C7">
-        <v>0.09389709792520406</v>
+        <v>0.08114665321979331</v>
       </c>
       <c r="D7">
-        <v>0.1465839944477381</v>
+        <v>0.06563169678200609</v>
       </c>
       <c r="E7">
-        <v>0.05279545968657118</v>
+        <v>0.1001668100135991</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.968025872513095</v>
+        <v>2.981277747074245</v>
       </c>
       <c r="H7">
-        <v>1.76560478918438</v>
+        <v>2.284409027721267</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5795847895522286</v>
+        <v>0.4077910500042208</v>
       </c>
       <c r="L7">
-        <v>0.1249421219483153</v>
+        <v>0.1930090360048169</v>
       </c>
       <c r="M7">
-        <v>0.1666626283133148</v>
+        <v>0.2114551486069942</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9008734987203297</v>
+        <v>0.8572573811734401</v>
       </c>
       <c r="C8">
-        <v>0.1013260214122802</v>
+        <v>0.0839643035435067</v>
       </c>
       <c r="D8">
-        <v>0.1784388883739183</v>
+        <v>0.07429720983748211</v>
       </c>
       <c r="E8">
-        <v>0.05536182781535182</v>
+        <v>0.1005759931287571</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.304990259049418</v>
+        <v>3.076237296896977</v>
       </c>
       <c r="H8">
-        <v>1.918301889450845</v>
+        <v>2.324721583962145</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7086488468113572</v>
+        <v>0.4338772895606837</v>
       </c>
       <c r="L8">
-        <v>0.1414105047904073</v>
+        <v>0.195809612392317</v>
       </c>
       <c r="M8">
-        <v>0.1964756586546557</v>
+        <v>0.2166689900694898</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.205993141276707</v>
+        <v>0.9149977110835721</v>
       </c>
       <c r="C9">
-        <v>0.1159794730762158</v>
+        <v>0.0891596199560496</v>
       </c>
       <c r="D9">
-        <v>0.2430653330758901</v>
+        <v>0.09160405130425886</v>
       </c>
       <c r="E9">
-        <v>0.06077427852521389</v>
+        <v>0.1015412160338354</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.996576586805475</v>
+        <v>3.268053185758902</v>
       </c>
       <c r="H9">
-        <v>2.233789262609292</v>
+        <v>2.407656317084246</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9719063221005797</v>
+        <v>0.4884050215825368</v>
       </c>
       <c r="L9">
-        <v>0.1755403842766938</v>
+        <v>0.2020710905084684</v>
       </c>
       <c r="M9">
-        <v>0.2578382118910731</v>
+        <v>0.2280859067562311</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.44124411618165</v>
+        <v>0.9607377671512154</v>
       </c>
       <c r="C10">
-        <v>0.1269687939632931</v>
+        <v>0.09278102463692761</v>
       </c>
       <c r="D10">
-        <v>0.2924191835818561</v>
+        <v>0.1045185199519238</v>
       </c>
       <c r="E10">
-        <v>0.06503295317475377</v>
+        <v>0.1023496232834411</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.529845925234753</v>
+        <v>3.412482847937099</v>
       </c>
       <c r="H10">
-        <v>2.478361566504248</v>
+        <v>2.470990281754325</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.174027917421853</v>
+        <v>0.5305467570593407</v>
       </c>
       <c r="L10">
-        <v>0.2020496986752534</v>
+        <v>0.2071415803825261</v>
       </c>
       <c r="M10">
-        <v>0.3052582157132733</v>
+        <v>0.2372036934400015</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.551385884518851</v>
+        <v>0.9822707641607167</v>
       </c>
       <c r="C11">
-        <v>0.1320603973686403</v>
+        <v>0.09438724555126754</v>
       </c>
       <c r="D11">
-        <v>0.3154173822822628</v>
+        <v>0.1104386625195701</v>
       </c>
       <c r="E11">
-        <v>0.06704418725098904</v>
+        <v>0.102738953130455</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.779503742777081</v>
+        <v>3.47896818788638</v>
       </c>
       <c r="H11">
-        <v>2.593149963640201</v>
+        <v>2.500332168612545</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.268500649144443</v>
+        <v>0.5501754617798724</v>
       </c>
       <c r="L11">
-        <v>0.2144996284216205</v>
+        <v>0.2095506630355715</v>
       </c>
       <c r="M11">
-        <v>0.3274810251325206</v>
+        <v>0.2415107815971069</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.593609923187557</v>
+        <v>0.9905293070940786</v>
       </c>
       <c r="C12">
-        <v>0.1340059305927852</v>
+        <v>0.09498965339215459</v>
       </c>
       <c r="D12">
-        <v>0.3242178257149533</v>
+        <v>0.1126870942686935</v>
       </c>
       <c r="E12">
-        <v>0.06781758954333483</v>
+        <v>0.1028894838412455</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.875208395806169</v>
+        <v>3.50425842031882</v>
       </c>
       <c r="H12">
-        <v>2.637195143678127</v>
+        <v>2.511520029705821</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.304697646188174</v>
+        <v>0.5576745895192801</v>
       </c>
       <c r="L12">
-        <v>0.2192776144843833</v>
+        <v>0.2104776668158053</v>
       </c>
       <c r="M12">
-        <v>0.3360032146834797</v>
+        <v>0.2431647120785669</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.58449214630366</v>
+        <v>0.9887460340019061</v>
       </c>
       <c r="C13">
-        <v>0.1335860772782027</v>
+        <v>0.09486017211776243</v>
       </c>
       <c r="D13">
-        <v>0.322318201868228</v>
+        <v>0.1122025591797069</v>
       </c>
       <c r="E13">
-        <v>0.06765047932319135</v>
+        <v>0.1028569265416941</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.854542359339234</v>
+        <v>3.498806644413094</v>
       </c>
       <c r="H13">
-        <v>2.627682361395955</v>
+        <v>2.509107105233511</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.2968821867195</v>
+        <v>0.5560565711436993</v>
       </c>
       <c r="L13">
-        <v>0.2182456424637991</v>
+        <v>0.2102773645743667</v>
       </c>
       <c r="M13">
-        <v>0.3341628277585116</v>
+        <v>0.2428074885166893</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.554848938631579</v>
+        <v>0.9829481051103812</v>
       </c>
       <c r="C14">
-        <v>0.1322200821391988</v>
+        <v>0.09443692240949986</v>
       </c>
       <c r="D14">
-        <v>0.3161394869450902</v>
+        <v>0.1106235095143688</v>
       </c>
       <c r="E14">
-        <v>0.06710757212902863</v>
+        <v>0.1027512752741693</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.787353176013255</v>
+        <v>3.481046546507343</v>
       </c>
       <c r="H14">
-        <v>2.59676159168356</v>
+        <v>2.501251060823392</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.271469774593555</v>
+        <v>0.5507910919372989</v>
       </c>
       <c r="L14">
-        <v>0.2148913996789616</v>
+        <v>0.2096266328601502</v>
       </c>
       <c r="M14">
-        <v>0.3281799273454951</v>
+        <v>0.2416463918237568</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.536760879193935</v>
+        <v>0.9794103143455857</v>
       </c>
       <c r="C15">
-        <v>0.1313857756379022</v>
+        <v>0.09417691269890582</v>
       </c>
       <c r="D15">
-        <v>0.3123671711941824</v>
+        <v>0.1096571584982371</v>
       </c>
       <c r="E15">
-        <v>0.06677659787750301</v>
+        <v>0.1026869644273241</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.746354197505127</v>
+        <v>3.470182807695835</v>
       </c>
       <c r="H15">
-        <v>2.57789910232043</v>
+        <v>2.496449009900573</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.255960786435168</v>
+        <v>0.5475744584963138</v>
       </c>
       <c r="L15">
-        <v>0.2128453241263486</v>
+        <v>0.2092299599832756</v>
       </c>
       <c r="M15">
-        <v>0.3245295670598907</v>
+        <v>0.2409381731299192</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.434114483283309</v>
+        <v>0.9593451466005547</v>
       </c>
       <c r="C16">
-        <v>0.126638250541923</v>
+        <v>0.09267523327613247</v>
       </c>
       <c r="D16">
-        <v>0.2909282718879638</v>
+        <v>0.1041325436702323</v>
       </c>
       <c r="E16">
-        <v>0.06490309854418186</v>
+        <v>0.10232461363886</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.513684764719017</v>
+        <v>3.408153727367193</v>
       </c>
       <c r="H16">
-        <v>2.470936705483382</v>
+        <v>2.469083436499659</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.167909630081425</v>
+        <v>0.5292732186507294</v>
       </c>
       <c r="L16">
-        <v>0.2012445336808639</v>
+        <v>0.2069862033918355</v>
       </c>
       <c r="M16">
-        <v>0.3038201069303597</v>
+        <v>0.2369254229892377</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.371989589928148</v>
+        <v>0.9472217475295679</v>
       </c>
       <c r="C17">
-        <v>0.123752287986818</v>
+        <v>0.09174351815217108</v>
       </c>
       <c r="D17">
-        <v>0.2779250109972367</v>
+        <v>0.1007550341184071</v>
       </c>
       <c r="E17">
-        <v>0.06377349315306091</v>
+        <v>0.1021078481946684</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.372860935364031</v>
+        <v>3.370302295414518</v>
       </c>
       <c r="H17">
-        <v>2.406270326291548</v>
+        <v>2.452431798238109</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.11458010015383</v>
+        <v>0.5181635526546131</v>
       </c>
       <c r="L17">
-        <v>0.1942328378544147</v>
+        <v>0.2056359804393537</v>
       </c>
       <c r="M17">
-        <v>0.291291297363351</v>
+        <v>0.2345045562117463</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.336546744590919</v>
+        <v>0.9403169796598263</v>
       </c>
       <c r="C18">
-        <v>0.122100789087014</v>
+        <v>0.09120373948398708</v>
       </c>
       <c r="D18">
-        <v>0.2704965058623401</v>
+        <v>0.09881663704169341</v>
       </c>
       <c r="E18">
-        <v>0.06313065764753389</v>
+        <v>0.1019852019801952</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.292518600510391</v>
+        <v>3.348604845174776</v>
       </c>
       <c r="H18">
-        <v>2.369403731252987</v>
+        <v>2.442904169049768</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.084140287298538</v>
+        <v>0.5118166795369063</v>
       </c>
       <c r="L18">
-        <v>0.1902361917648818</v>
+        <v>0.2048690149311625</v>
       </c>
       <c r="M18">
-        <v>0.2841454786437225</v>
+        <v>0.2331271365843008</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.324594265373491</v>
+        <v>0.9379908693123014</v>
       </c>
       <c r="C19">
-        <v>0.1215429495098803</v>
+        <v>0.09102031050984749</v>
       </c>
       <c r="D19">
-        <v>0.2679896664774901</v>
+        <v>0.09816105752386761</v>
       </c>
       <c r="E19">
-        <v>0.06291415347308771</v>
+        <v>0.1019440251033732</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.26542445144139</v>
+        <v>3.341271087640791</v>
       </c>
       <c r="H19">
-        <v>2.356975636617733</v>
+        <v>2.439686845552814</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.073872376812147</v>
+        <v>0.5096751338668071</v>
       </c>
       <c r="L19">
-        <v>0.1888890204173634</v>
+        <v>0.2046109905384697</v>
       </c>
       <c r="M19">
-        <v>0.2817360239929698</v>
+        <v>0.232663341652426</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.378572445099252</v>
+        <v>0.9485052353931565</v>
       </c>
       <c r="C20">
-        <v>0.1240586026469686</v>
+        <v>0.09184310182681799</v>
       </c>
       <c r="D20">
-        <v>0.279303901717995</v>
+        <v>0.1011141345305049</v>
       </c>
       <c r="E20">
-        <v>0.06389302112968842</v>
+        <v>0.1021307130150007</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.387782978126921</v>
+        <v>3.374324010869742</v>
       </c>
       <c r="H20">
-        <v>2.413119767237816</v>
+        <v>2.454199220965904</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.120232503764441</v>
+        <v>0.5193417315976774</v>
       </c>
       <c r="L20">
-        <v>0.1949754380498945</v>
+        <v>0.2057787155619621</v>
       </c>
       <c r="M20">
-        <v>0.2926186657553416</v>
+        <v>0.2347607091900485</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.563541304217551</v>
+        <v>0.9846482612263969</v>
       </c>
       <c r="C21">
-        <v>0.1326207986805699</v>
+        <v>0.09456139871860358</v>
       </c>
       <c r="D21">
-        <v>0.3179517316506235</v>
+        <v>0.111087134771779</v>
       </c>
       <c r="E21">
-        <v>0.06726670726944661</v>
+        <v>0.1027822235075639</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.807055400439424</v>
+        <v>3.486260024589853</v>
       </c>
       <c r="H21">
-        <v>2.605827511454038</v>
+        <v>2.503556486182049</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.278922054252831</v>
+        <v>0.5523358929606559</v>
       </c>
       <c r="L21">
-        <v>0.2158748376122333</v>
+        <v>0.2098173686043481</v>
       </c>
       <c r="M21">
-        <v>0.3299342362474462</v>
+        <v>0.2419868116453543</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.687471635311084</v>
+        <v>1.008878778496353</v>
       </c>
       <c r="C22">
-        <v>0.1383207359021839</v>
+        <v>0.09630400363661096</v>
       </c>
       <c r="D22">
-        <v>0.3437508295325671</v>
+        <v>0.1176435923817252</v>
       </c>
       <c r="E22">
-        <v>0.06954096530467524</v>
+        <v>0.103226090632365</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.087943380319643</v>
+        <v>3.560079747605528</v>
       </c>
       <c r="H22">
-        <v>2.735176086902356</v>
+        <v>2.53626170345143</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.385128233695013</v>
+        <v>0.574285266375739</v>
       </c>
       <c r="L22">
-        <v>0.2299077120945299</v>
+        <v>0.2125427570573351</v>
       </c>
       <c r="M22">
-        <v>0.3549524236692676</v>
+        <v>0.2468431465960919</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.62102537300953</v>
+        <v>0.995890733027494</v>
       </c>
       <c r="C23">
-        <v>0.1352675410666606</v>
+        <v>0.09537702083150634</v>
       </c>
       <c r="D23">
-        <v>0.3299272746092043</v>
+        <v>0.114140732445037</v>
       </c>
       <c r="E23">
-        <v>0.06832038908869364</v>
+        <v>0.1029875383315897</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.937346450162522</v>
+        <v>3.520619768587665</v>
       </c>
       <c r="H23">
-        <v>2.665803939479076</v>
+        <v>2.518765252043465</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.328194594019578</v>
+        <v>0.5625350818338006</v>
       </c>
       <c r="L23">
-        <v>0.2223812719384739</v>
+        <v>0.211080306857184</v>
       </c>
       <c r="M23">
-        <v>0.3415373016763823</v>
+        <v>0.2442389944254089</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.375595489049118</v>
+        <v>0.9479247676514149</v>
       </c>
       <c r="C24">
-        <v>0.1239200941761283</v>
+        <v>0.09179809289810947</v>
       </c>
       <c r="D24">
-        <v>0.2786803590280869</v>
+        <v>0.1009517747197464</v>
       </c>
       <c r="E24">
-        <v>0.06383896209206341</v>
+        <v>0.1021203696775235</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.381034805021613</v>
+        <v>3.372505594527041</v>
       </c>
       <c r="H24">
-        <v>2.410022171551304</v>
+        <v>2.453400027066948</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.117676371070957</v>
+        <v>0.5188089516341563</v>
       </c>
       <c r="L24">
-        <v>0.1946396016718666</v>
+        <v>0.2057141560589031</v>
       </c>
       <c r="M24">
-        <v>0.2920183854452816</v>
+        <v>0.2346448576728406</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.12172701047075</v>
+        <v>0.8987959354784607</v>
       </c>
       <c r="C25">
-        <v>0.1119896100042013</v>
+        <v>0.08778890568191855</v>
       </c>
       <c r="D25">
-        <v>0.2252967351123232</v>
+        <v>0.08688769153215503</v>
       </c>
       <c r="E25">
-        <v>0.05926445908315969</v>
+        <v>0.101262667379082</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.805563999319702</v>
+        <v>3.21555322816414</v>
       </c>
       <c r="H25">
-        <v>2.146430808295406</v>
+        <v>2.384801053089177</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8993559108921261</v>
+        <v>0.4732902875205127</v>
       </c>
       <c r="L25">
-        <v>0.1660801020426277</v>
+        <v>0.2002947040920944</v>
       </c>
       <c r="M25">
-        <v>0.2408721406391088</v>
+        <v>0.2248693759851577</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.864852945860008</v>
+        <v>0.9419832632740679</v>
       </c>
       <c r="C2">
-        <v>0.08470519802246201</v>
+        <v>0.1033389307497501</v>
       </c>
       <c r="D2">
-        <v>0.07666607668650727</v>
+        <v>0.1871972200163583</v>
       </c>
       <c r="E2">
-        <v>0.1006978799920759</v>
+        <v>0.05608116729644586</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.102342321812586</v>
+        <v>3.398158670781214</v>
       </c>
       <c r="H2">
-        <v>2.335905672660203</v>
+        <v>1.960659557291876</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4411727187139434</v>
+        <v>0.7442217910597151</v>
       </c>
       <c r="L2">
-        <v>0.1966204710330004</v>
+        <v>0.1459861363594186</v>
       </c>
       <c r="M2">
-        <v>0.2181622898218905</v>
+        <v>0.2047304360156375</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.843234501217438</v>
+        <v>0.8237078624276535</v>
       </c>
       <c r="C3">
-        <v>0.08253124014887803</v>
+        <v>0.09750316726582042</v>
       </c>
       <c r="D3">
-        <v>0.0698194154473839</v>
+        <v>0.1619456399787254</v>
       </c>
       <c r="E3">
-        <v>0.1003567323239896</v>
+        <v>0.05402243751900215</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.027054271993848</v>
+        <v>3.130122561567077</v>
       </c>
       <c r="H3">
-        <v>2.303762807196648</v>
+        <v>1.83895356128906</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4202695279218602</v>
+        <v>0.6417591937539697</v>
       </c>
       <c r="L3">
-        <v>0.1943271504768944</v>
+        <v>0.1328469517650461</v>
       </c>
       <c r="M3">
-        <v>0.2139217819283559</v>
+        <v>0.1809951194187143</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8306423692436908</v>
+        <v>0.7525559548028582</v>
       </c>
       <c r="C4">
-        <v>0.08115432108868248</v>
+        <v>0.09391683329372214</v>
       </c>
       <c r="D4">
-        <v>0.06565449457212935</v>
+        <v>0.1466674828087662</v>
       </c>
       <c r="E4">
-        <v>0.1001677995846375</v>
+        <v>0.05280206837252344</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.981526307777557</v>
+        <v>2.968904615648086</v>
       </c>
       <c r="H4">
-        <v>2.284513664771538</v>
+        <v>1.766001825714653</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.407858256850389</v>
+        <v>0.5799223485295073</v>
       </c>
       <c r="L4">
-        <v>0.1930160115647368</v>
+        <v>0.1249848767852129</v>
       </c>
       <c r="M4">
-        <v>0.2114682761707911</v>
+        <v>0.1667402748347655</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8256823377328431</v>
+        <v>0.7238931815122669</v>
       </c>
       <c r="C5">
-        <v>0.080582543639796</v>
+        <v>0.09245236265180878</v>
       </c>
       <c r="D5">
-        <v>0.06396696806146451</v>
+        <v>0.1404910943177669</v>
       </c>
       <c r="E5">
-        <v>0.1000959758612865</v>
+        <v>0.0523150744480283</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.963148183260955</v>
+        <v>2.903966809110614</v>
       </c>
       <c r="H5">
-        <v>2.276791536964026</v>
+        <v>1.736680399552625</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4029068110391876</v>
+        <v>0.5549609014256447</v>
       </c>
       <c r="L5">
-        <v>0.192506104955612</v>
+        <v>0.1218285137535204</v>
       </c>
       <c r="M5">
-        <v>0.2105062181628874</v>
+        <v>0.1610039677116006</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8248690770264773</v>
+        <v>0.7191527733323255</v>
       </c>
       <c r="C6">
-        <v>0.08048695338806056</v>
+        <v>0.09220894504673183</v>
       </c>
       <c r="D6">
-        <v>0.06368733976729857</v>
+        <v>0.1394682993765031</v>
       </c>
       <c r="E6">
-        <v>0.1000843618546128</v>
+        <v>0.05223481377427674</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.960107045642445</v>
+        <v>2.8932274701273</v>
       </c>
       <c r="H6">
-        <v>2.275516645662179</v>
+        <v>1.731835073822651</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4020910382864571</v>
+        <v>0.5508295044415945</v>
       </c>
       <c r="L6">
-        <v>0.1924229089363294</v>
+        <v>0.1213071545586928</v>
       </c>
       <c r="M6">
-        <v>0.2103487501695724</v>
+        <v>0.1600556377791804</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8305747827378411</v>
+        <v>0.7521681009353358</v>
       </c>
       <c r="C7">
-        <v>0.08114665321979331</v>
+        <v>0.09389709792541368</v>
       </c>
       <c r="D7">
-        <v>0.06563169678200609</v>
+        <v>0.1465839944477381</v>
       </c>
       <c r="E7">
-        <v>0.1001668100135991</v>
+        <v>0.05279545968656407</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.981277747074245</v>
+        <v>2.968025872513095</v>
       </c>
       <c r="H7">
-        <v>2.284409027721267</v>
+        <v>1.765604789184408</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4077910500042208</v>
+        <v>0.5795847895521291</v>
       </c>
       <c r="L7">
-        <v>0.1930090360048169</v>
+        <v>0.1249421219481945</v>
       </c>
       <c r="M7">
-        <v>0.2114551486069942</v>
+        <v>0.1666626283133184</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8572573811734401</v>
+        <v>0.9008734987205003</v>
       </c>
       <c r="C8">
-        <v>0.0839643035435067</v>
+        <v>0.1013260214127634</v>
       </c>
       <c r="D8">
-        <v>0.07429720983748211</v>
+        <v>0.1784388883740462</v>
       </c>
       <c r="E8">
-        <v>0.1005759931287571</v>
+        <v>0.05536182781532339</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.076237296896977</v>
+        <v>3.304990259049447</v>
       </c>
       <c r="H8">
-        <v>2.324721583962145</v>
+        <v>1.918301889450845</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4338772895606837</v>
+        <v>0.7086488468113572</v>
       </c>
       <c r="L8">
-        <v>0.195809612392317</v>
+        <v>0.1414105047904712</v>
       </c>
       <c r="M8">
-        <v>0.2166689900694898</v>
+        <v>0.1964756586546379</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9149977110835721</v>
+        <v>1.205993141276679</v>
       </c>
       <c r="C9">
-        <v>0.0891596199560496</v>
+        <v>0.1159794730762016</v>
       </c>
       <c r="D9">
-        <v>0.09160405130425886</v>
+        <v>0.2430653330757195</v>
       </c>
       <c r="E9">
-        <v>0.1015412160338354</v>
+        <v>0.06077427852520501</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.268053185758902</v>
+        <v>3.996576586805446</v>
       </c>
       <c r="H9">
-        <v>2.407656317084246</v>
+        <v>2.233789262609292</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4884050215825368</v>
+        <v>0.9719063221003807</v>
       </c>
       <c r="L9">
-        <v>0.2020710905084684</v>
+        <v>0.1755403842765801</v>
       </c>
       <c r="M9">
-        <v>0.2280859067562311</v>
+        <v>0.2578382118910696</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9607377671512154</v>
+        <v>1.441244116181878</v>
       </c>
       <c r="C10">
-        <v>0.09278102463692761</v>
+        <v>0.1269687939638828</v>
       </c>
       <c r="D10">
-        <v>0.1045185199519238</v>
+        <v>0.2924191835817425</v>
       </c>
       <c r="E10">
-        <v>0.1023496232834411</v>
+        <v>0.06503295317475377</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.412482847937099</v>
+        <v>4.529845925234781</v>
       </c>
       <c r="H10">
-        <v>2.470990281754325</v>
+        <v>2.478361566504191</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5305467570593407</v>
+        <v>1.174027917421995</v>
       </c>
       <c r="L10">
-        <v>0.2071415803825261</v>
+        <v>0.2020496986752391</v>
       </c>
       <c r="M10">
-        <v>0.2372036934400015</v>
+        <v>0.3052582157132591</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9822707641607167</v>
+        <v>1.551385884518794</v>
       </c>
       <c r="C11">
-        <v>0.09438724555126754</v>
+        <v>0.1320603973689458</v>
       </c>
       <c r="D11">
-        <v>0.1104386625195701</v>
+        <v>0.3154173822820923</v>
       </c>
       <c r="E11">
-        <v>0.102738953130455</v>
+        <v>0.06704418725099259</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.47896818788638</v>
+        <v>4.779503742777138</v>
       </c>
       <c r="H11">
-        <v>2.500332168612545</v>
+        <v>2.593149963640087</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5501754617798724</v>
+        <v>1.268500649144357</v>
       </c>
       <c r="L11">
-        <v>0.2095506630355715</v>
+        <v>0.2144996284214784</v>
       </c>
       <c r="M11">
-        <v>0.2415107815971069</v>
+        <v>0.3274810251325135</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9905293070940786</v>
+        <v>1.593609923187728</v>
       </c>
       <c r="C12">
-        <v>0.09498965339215459</v>
+        <v>0.1340059305927497</v>
       </c>
       <c r="D12">
-        <v>0.1126870942686935</v>
+        <v>0.3242178257145554</v>
       </c>
       <c r="E12">
-        <v>0.1028894838412455</v>
+        <v>0.0678175895434272</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.50425842031882</v>
+        <v>4.875208395806112</v>
       </c>
       <c r="H12">
-        <v>2.511520029705821</v>
+        <v>2.637195143678127</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5576745895192801</v>
+        <v>1.30469764618806</v>
       </c>
       <c r="L12">
-        <v>0.2104776668158053</v>
+        <v>0.2192776144845396</v>
       </c>
       <c r="M12">
-        <v>0.2431647120785669</v>
+        <v>0.3360032146834726</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9887460340019061</v>
+        <v>1.584492146303688</v>
       </c>
       <c r="C13">
-        <v>0.09486017211776243</v>
+        <v>0.1335860772781743</v>
       </c>
       <c r="D13">
-        <v>0.1122025591797069</v>
+        <v>0.3223182018678301</v>
       </c>
       <c r="E13">
-        <v>0.1028569265416941</v>
+        <v>0.06765047932318069</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.498806644413094</v>
+        <v>4.854542359339234</v>
       </c>
       <c r="H13">
-        <v>2.509107105233511</v>
+        <v>2.627682361395841</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5560565711436993</v>
+        <v>1.296882186719671</v>
       </c>
       <c r="L13">
-        <v>0.2102773645743667</v>
+        <v>0.2182456424635859</v>
       </c>
       <c r="M13">
-        <v>0.2428074885166893</v>
+        <v>0.3341628277584974</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9829481051103812</v>
+        <v>1.554848938631324</v>
       </c>
       <c r="C14">
-        <v>0.09443692240949986</v>
+        <v>0.1322200821385877</v>
       </c>
       <c r="D14">
-        <v>0.1106235095143688</v>
+        <v>0.316139486945076</v>
       </c>
       <c r="E14">
-        <v>0.1027512752741693</v>
+        <v>0.06710757212901797</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.481046546507343</v>
+        <v>4.787353176013198</v>
       </c>
       <c r="H14">
-        <v>2.501251060823392</v>
+        <v>2.59676159168356</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5507910919372989</v>
+        <v>1.271469774593584</v>
       </c>
       <c r="L14">
-        <v>0.2096266328601502</v>
+        <v>0.2148913996790185</v>
       </c>
       <c r="M14">
-        <v>0.2416463918237568</v>
+        <v>0.328179927345488</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9794103143455857</v>
+        <v>1.536760879193707</v>
       </c>
       <c r="C15">
-        <v>0.09417691269890582</v>
+        <v>0.1313857756373977</v>
       </c>
       <c r="D15">
-        <v>0.1096571584982371</v>
+        <v>0.3123671711942961</v>
       </c>
       <c r="E15">
-        <v>0.1026869644273241</v>
+        <v>0.06677659787751722</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.470182807695835</v>
+        <v>4.746354197505241</v>
       </c>
       <c r="H15">
-        <v>2.496449009900573</v>
+        <v>2.57789910232043</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5475744584963138</v>
+        <v>1.255960786435054</v>
       </c>
       <c r="L15">
-        <v>0.2092299599832756</v>
+        <v>0.2128453241262775</v>
       </c>
       <c r="M15">
-        <v>0.2409381731299192</v>
+        <v>0.3245295670598907</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9593451466005547</v>
+        <v>1.43411448328348</v>
       </c>
       <c r="C16">
-        <v>0.09267523327613247</v>
+        <v>0.1266382505416033</v>
       </c>
       <c r="D16">
-        <v>0.1041325436702323</v>
+        <v>0.2909282718879211</v>
       </c>
       <c r="E16">
-        <v>0.10232461363886</v>
+        <v>0.06490309854414988</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.408153727367193</v>
+        <v>4.513684764719102</v>
       </c>
       <c r="H16">
-        <v>2.469083436499659</v>
+        <v>2.470936705483268</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5292732186507294</v>
+        <v>1.16790963008134</v>
       </c>
       <c r="L16">
-        <v>0.2069862033918355</v>
+        <v>0.2012445336808639</v>
       </c>
       <c r="M16">
-        <v>0.2369254229892377</v>
+        <v>0.3038201069303383</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9472217475295679</v>
+        <v>1.371989589928148</v>
       </c>
       <c r="C17">
-        <v>0.09174351815217108</v>
+        <v>0.1237522879868251</v>
       </c>
       <c r="D17">
-        <v>0.1007550341184071</v>
+        <v>0.2779250109972367</v>
       </c>
       <c r="E17">
-        <v>0.1021078481946684</v>
+        <v>0.06377349315301295</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.370302295414518</v>
+        <v>4.372860935363974</v>
       </c>
       <c r="H17">
-        <v>2.452431798238109</v>
+        <v>2.406270326291576</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5181635526546131</v>
+        <v>1.114580100154001</v>
       </c>
       <c r="L17">
-        <v>0.2056359804393537</v>
+        <v>0.1942328378544431</v>
       </c>
       <c r="M17">
-        <v>0.2345045562117463</v>
+        <v>0.291291297363351</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9403169796598263</v>
+        <v>1.336546744591317</v>
       </c>
       <c r="C18">
-        <v>0.09120373948398708</v>
+        <v>0.1221007890878028</v>
       </c>
       <c r="D18">
-        <v>0.09881663704169341</v>
+        <v>0.2704965058622975</v>
       </c>
       <c r="E18">
-        <v>0.1019852019801952</v>
+        <v>0.06313065764751258</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.348604845174776</v>
+        <v>4.292518600510448</v>
       </c>
       <c r="H18">
-        <v>2.442904169049768</v>
+        <v>2.369403731252902</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5118166795369063</v>
+        <v>1.084140287298652</v>
       </c>
       <c r="L18">
-        <v>0.2048690149311625</v>
+        <v>0.1902361917646687</v>
       </c>
       <c r="M18">
-        <v>0.2331271365843008</v>
+        <v>0.2841454786437296</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9379908693123014</v>
+        <v>1.324594265373378</v>
       </c>
       <c r="C19">
-        <v>0.09102031050984749</v>
+        <v>0.1215429495098732</v>
       </c>
       <c r="D19">
-        <v>0.09816105752386761</v>
+        <v>0.2679896664779733</v>
       </c>
       <c r="E19">
-        <v>0.1019440251033732</v>
+        <v>0.06291415347308593</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.341271087640791</v>
+        <v>4.265424451441419</v>
       </c>
       <c r="H19">
-        <v>2.439686845552814</v>
+        <v>2.356975636617733</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5096751338668071</v>
+        <v>1.073872376812062</v>
       </c>
       <c r="L19">
-        <v>0.2046109905384697</v>
+        <v>0.1888890204172782</v>
       </c>
       <c r="M19">
-        <v>0.232663341652426</v>
+        <v>0.2817360239929769</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9485052353931565</v>
+        <v>1.378572445099195</v>
       </c>
       <c r="C20">
-        <v>0.09184310182681799</v>
+        <v>0.1240586026466985</v>
       </c>
       <c r="D20">
-        <v>0.1011141345305049</v>
+        <v>0.2793039017179382</v>
       </c>
       <c r="E20">
-        <v>0.1021307130150007</v>
+        <v>0.06389302112970263</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.374324010869742</v>
+        <v>4.387782978126893</v>
       </c>
       <c r="H20">
-        <v>2.454199220965904</v>
+        <v>2.413119767237703</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5193417315976774</v>
+        <v>1.120232503764498</v>
       </c>
       <c r="L20">
-        <v>0.2057787155619621</v>
+        <v>0.1949754380498661</v>
       </c>
       <c r="M20">
-        <v>0.2347607091900485</v>
+        <v>0.2926186657553274</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9846482612263969</v>
+        <v>1.563541304217438</v>
       </c>
       <c r="C21">
-        <v>0.09456139871860358</v>
+        <v>0.1326207986803496</v>
       </c>
       <c r="D21">
-        <v>0.111087134771779</v>
+        <v>0.3179517316508225</v>
       </c>
       <c r="E21">
-        <v>0.1027822235075639</v>
+        <v>0.06726670726942174</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.486260024589853</v>
+        <v>4.80705540043931</v>
       </c>
       <c r="H21">
-        <v>2.503556486182049</v>
+        <v>2.605827511454038</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5523358929606559</v>
+        <v>1.278922054252661</v>
       </c>
       <c r="L21">
-        <v>0.2098173686043481</v>
+        <v>0.2158748376123896</v>
       </c>
       <c r="M21">
-        <v>0.2419868116453543</v>
+        <v>0.3299342362474462</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008878778496353</v>
+        <v>1.687471635310828</v>
       </c>
       <c r="C22">
-        <v>0.09630400363661096</v>
+        <v>0.138320735901857</v>
       </c>
       <c r="D22">
-        <v>0.1176435923817252</v>
+        <v>0.3437508295323823</v>
       </c>
       <c r="E22">
-        <v>0.103226090632365</v>
+        <v>0.06954096530467524</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.560079747605528</v>
+        <v>5.0879433803197</v>
       </c>
       <c r="H22">
-        <v>2.53626170345143</v>
+        <v>2.7351760869023</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.574285266375739</v>
+        <v>1.3851282336949</v>
       </c>
       <c r="L22">
-        <v>0.2125427570573351</v>
+        <v>0.2299077120945299</v>
       </c>
       <c r="M22">
-        <v>0.2468431465960919</v>
+        <v>0.3549524236692747</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.995890733027494</v>
+        <v>1.62102537300936</v>
       </c>
       <c r="C23">
-        <v>0.09537702083150634</v>
+        <v>0.1352675410666748</v>
       </c>
       <c r="D23">
-        <v>0.114140732445037</v>
+        <v>0.3299272746094459</v>
       </c>
       <c r="E23">
-        <v>0.1029875383315897</v>
+        <v>0.06832038908869364</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.520619768587665</v>
+        <v>4.937346450162352</v>
       </c>
       <c r="H23">
-        <v>2.518765252043465</v>
+        <v>2.66580393947919</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5625350818338006</v>
+        <v>1.32819459401955</v>
       </c>
       <c r="L23">
-        <v>0.211080306857184</v>
+        <v>0.2223812719384739</v>
       </c>
       <c r="M23">
-        <v>0.2442389944254089</v>
+        <v>0.3415373016763894</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9479247676514149</v>
+        <v>1.375595489049431</v>
       </c>
       <c r="C24">
-        <v>0.09179809289810947</v>
+        <v>0.1239200941766541</v>
       </c>
       <c r="D24">
-        <v>0.1009517747197464</v>
+        <v>0.2786803590284279</v>
       </c>
       <c r="E24">
-        <v>0.1021203696775235</v>
+        <v>0.06383896209209361</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.372505594527041</v>
+        <v>4.381034805021613</v>
       </c>
       <c r="H24">
-        <v>2.453400027066948</v>
+        <v>2.410022171551304</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5188089516341563</v>
+        <v>1.117676371070786</v>
       </c>
       <c r="L24">
-        <v>0.2057141560589031</v>
+        <v>0.1946396016720513</v>
       </c>
       <c r="M24">
-        <v>0.2346448576728406</v>
+        <v>0.2920183854453384</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8987959354784607</v>
+        <v>1.12172701047075</v>
       </c>
       <c r="C25">
-        <v>0.08778890568191855</v>
+        <v>0.1119896100041657</v>
       </c>
       <c r="D25">
-        <v>0.08688769153215503</v>
+        <v>0.2252967351124369</v>
       </c>
       <c r="E25">
-        <v>0.101262667379082</v>
+        <v>0.05926445908313127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.21555322816414</v>
+        <v>3.80556399931956</v>
       </c>
       <c r="H25">
-        <v>2.384801053089177</v>
+        <v>2.146430808295378</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4732902875205127</v>
+        <v>0.8993559108921545</v>
       </c>
       <c r="L25">
-        <v>0.2002947040920944</v>
+        <v>0.1660801020425282</v>
       </c>
       <c r="M25">
-        <v>0.2248693759851577</v>
+        <v>0.2408721406390981</v>
       </c>
       <c r="N25">
         <v>0</v>
